--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjshafer\Downloads\datasets_and_notebooks\6020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{631AF93F-86B2-4452-858F-8F6CBF085878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2886FFA1-96E1-43B3-A156-F3216225492A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ECA32359-8F83-4EAE-BB08-D66963F701EB}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pyrun!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pyrun!$A$1:$F$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>country</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>RUS</t>
   </si>
 </sst>
 </file>
@@ -7356,1148 +7362,1398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4BAFA2-F5B3-4B30-9845-E46FB4EAC133}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>VLOOKUP(B2,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>ARG</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>42.3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.82499999999999996</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12976.636424541095</v>
       </c>
-      <c r="E2">
-        <f>VLOOKUP(A2,[1]Sheet2!B5:M181,6,FALSE)</f>
+      <c r="F2">
+        <f>VLOOKUP(B2,[1]Sheet2!B5:M181,6,FALSE)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>VLOOKUP(B3,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>ARM</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>31.5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.73899999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3843.5912130934043</v>
       </c>
-      <c r="E3">
-        <f>VLOOKUP(A3,[1]Sheet2!B6:M182,6,FALSE)</f>
+      <c r="F3">
+        <f>VLOOKUP(B3,[1]Sheet2!B6:M182,6,FALSE)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>VLOOKUP(B4,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>AUT</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>30.9</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>50719.38827706845</v>
       </c>
-      <c r="E4">
-        <f>VLOOKUP(A4,[1]Sheet2!B7:M183,6,FALSE)</f>
+      <c r="F4">
+        <f>VLOOKUP(B4,[1]Sheet2!B7:M183,6,FALSE)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>VLOOKUP(B5,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>BLR</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>26.6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.79600000000000004</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7978.8726147107627</v>
       </c>
-      <c r="E5">
-        <f>VLOOKUP(A5,[1]Sheet2!B8:M184,6,FALSE)</f>
+      <c r="F5">
+        <f>VLOOKUP(B5,[1]Sheet2!B8:M184,6,FALSE)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>VLOOKUP(B6,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>BEL</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>27.7</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.89</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>46582.669550341176</v>
       </c>
-      <c r="E6">
-        <f>VLOOKUP(A6,[1]Sheet2!B9:M185,6,FALSE)</f>
+      <c r="F6">
+        <f>VLOOKUP(B6,[1]Sheet2!B9:M185,6,FALSE)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>VLOOKUP(B7,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>BRA</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>52.9</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.747</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>12216.904464339616</v>
       </c>
-      <c r="E7">
-        <f>VLOOKUP(A7,[1]Sheet2!B10:M186,6,FALSE)</f>
+      <c r="F7">
+        <f>VLOOKUP(B7,[1]Sheet2!B10:M186,6,FALSE)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>VLOOKUP(B8,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>BGR</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>36.6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.78700000000000003</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7674.8605591402675</v>
       </c>
-      <c r="E8">
-        <f>VLOOKUP(A8,[1]Sheet2!B11:M187,6,FALSE)</f>
+      <c r="F8">
+        <f>VLOOKUP(B8,[1]Sheet2!B11:M187,6,FALSE)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>VLOOKUP(B9,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>BDI</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>39.200000000000003</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.40400000000000003</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>282.75552520818792</v>
       </c>
-      <c r="E9">
-        <f>VLOOKUP(A9,[1]Sheet2!B12:M188,6,FALSE)</f>
+      <c r="F9">
+        <f>VLOOKUP(B9,[1]Sheet2!B12:M188,6,FALSE)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>VLOOKUP(B10,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>CAN</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>34</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.91200000000000003</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>52413.721156078609</v>
       </c>
-      <c r="E10">
-        <f>VLOOKUP(A10,[1]Sheet2!B13:M189,6,FALSE)</f>
+      <c r="F10">
+        <f>VLOOKUP(B10,[1]Sheet2!B13:M189,6,FALSE)</f>
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>VLOOKUP(B11,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>CHL</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>47.3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.84099999999999997</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>15941.397219232807</v>
       </c>
-      <c r="E11">
-        <f>VLOOKUP(A11,[1]Sheet2!B14:M190,6,FALSE)</f>
+      <c r="F11">
+        <f>VLOOKUP(B11,[1]Sheet2!B14:M190,6,FALSE)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>VLOOKUP(B12,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>COL</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>53.5</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.72</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>8030.5859140752018</v>
       </c>
-      <c r="E12">
-        <f>VLOOKUP(A12,[1]Sheet2!B15:M191,6,FALSE)</f>
+      <c r="F12">
+        <f>VLOOKUP(B12,[1]Sheet2!B15:M191,6,FALSE)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>VLOOKUP(B13,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>COM</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>45</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.497</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>834.34109489030334</v>
       </c>
-      <c r="E13">
-        <f>VLOOKUP(A13,[1]Sheet2!B16:M192,6,FALSE)</f>
+      <c r="F13">
+        <f>VLOOKUP(B13,[1]Sheet2!B16:M192,6,FALSE)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>VLOOKUP(B14,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>CRI</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>49.2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.76800000000000002</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>10569.666314386577</v>
       </c>
-      <c r="E14">
-        <f>VLOOKUP(A14,[1]Sheet2!B17:M193,6,FALSE)</f>
+      <c r="F14">
+        <f>VLOOKUP(B14,[1]Sheet2!B17:M193,6,FALSE)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>VLOOKUP(B15,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>HRV</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>32</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.82</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>13574.740089062663</v>
       </c>
-      <c r="E15">
-        <f>VLOOKUP(A15,[1]Sheet2!B18:M194,6,FALSE)</f>
+      <c r="F15">
+        <f>VLOOKUP(B15,[1]Sheet2!B18:M194,6,FALSE)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>VLOOKUP(B16,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>CYP</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>37</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.85</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>27907.967362674201</v>
       </c>
-      <c r="E16">
-        <f>VLOOKUP(A16,[1]Sheet2!B19:M195,6,FALSE)</f>
+      <c r="F16">
+        <f>VLOOKUP(B16,[1]Sheet2!B19:M195,6,FALSE)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>VLOOKUP(B17,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>CZE</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>26.5</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.871</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>19916.019387372155</v>
       </c>
-      <c r="E17">
-        <f>VLOOKUP(A17,[1]Sheet2!B20:M196,6,FALSE)</f>
+      <c r="F17">
+        <f>VLOOKUP(B17,[1]Sheet2!B20:M196,6,FALSE)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>VLOOKUP(B18,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>DNK</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>28.5</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>61191.192626042837</v>
       </c>
-      <c r="E18">
-        <f>VLOOKUP(A18,[1]Sheet2!B21:M197,6,FALSE)</f>
+      <c r="F18">
+        <f>VLOOKUP(B18,[1]Sheet2!B21:M197,6,FALSE)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>VLOOKUP(B19,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>DJI</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>44.1</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.46700000000000003</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1622.6379744125047</v>
       </c>
-      <c r="E19">
-        <f>VLOOKUP(A19,[1]Sheet2!B22:M198,6,FALSE)</f>
+      <c r="F19">
+        <f>VLOOKUP(B19,[1]Sheet2!B22:M198,6,FALSE)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>VLOOKUP(B20,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>DOM</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>47.1</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.71199999999999997</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6027.0555440367434</v>
       </c>
-      <c r="E20">
-        <f>VLOOKUP(A20,[1]Sheet2!B23:M199,6,FALSE)</f>
+      <c r="F20">
+        <f>VLOOKUP(B20,[1]Sheet2!B23:M199,6,FALSE)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>VLOOKUP(B21,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>ECU</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>47.3</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.73699999999999999</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>6074.0908289583394</v>
       </c>
-      <c r="E21">
-        <f>VLOOKUP(A21,[1]Sheet2!B24:M200,6,FALSE)</f>
+      <c r="F21">
+        <f>VLOOKUP(B21,[1]Sheet2!B24:M200,6,FALSE)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>VLOOKUP(B22,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>SLV</v>
+      </c>
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>43.5</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.67600000000000005</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3895.6644909904799</v>
       </c>
-      <c r="E22">
-        <f>VLOOKUP(A22,[1]Sheet2!B25:M201,6,FALSE)</f>
+      <c r="F22">
+        <f>VLOOKUP(B22,[1]Sheet2!B25:M201,6,FALSE)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>VLOOKUP(B23,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>EST</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>35.1</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.86</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>19072.238517566937</v>
       </c>
-      <c r="E23">
-        <f>VLOOKUP(A23,[1]Sheet2!B26:M202,6,FALSE)</f>
+      <c r="F23">
+        <f>VLOOKUP(B23,[1]Sheet2!B26:M202,6,FALSE)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>VLOOKUP(B24,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>FIN</v>
+      </c>
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>27.2</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.89</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>49638.077129813944</v>
       </c>
-      <c r="E24">
-        <f>VLOOKUP(A24,[1]Sheet2!B28:M204,6,FALSE)</f>
+      <c r="F24">
+        <f>VLOOKUP(B24,[1]Sheet2!B28:M204,6,FALSE)</f>
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>VLOOKUP(B25,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>FRA</v>
+      </c>
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>32.5</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.89</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>42554.122054241321</v>
       </c>
-      <c r="E25">
-        <f>VLOOKUP(A25,[1]Sheet2!B29:M205,6,FALSE)</f>
+      <c r="F25">
+        <f>VLOOKUP(B25,[1]Sheet2!B29:M205,6,FALSE)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>VLOOKUP(B26,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>GEO</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>40</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.75900000000000001</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4274.3768570296097</v>
       </c>
-      <c r="E26">
-        <f>VLOOKUP(A26,[1]Sheet2!B30:M206,6,FALSE)</f>
+      <c r="F26">
+        <f>VLOOKUP(B26,[1]Sheet2!B30:M206,6,FALSE)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>VLOOKUP(B27,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>DEU</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>31.4</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.92</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>46530.911427577608</v>
       </c>
-      <c r="E27">
-        <f>VLOOKUP(A27,[1]Sheet2!B31:M207,6,FALSE)</f>
+      <c r="F27">
+        <f>VLOOKUP(B27,[1]Sheet2!B31:M207,6,FALSE)</f>
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>VLOOKUP(B28,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>GRC</v>
+      </c>
+      <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>36.1</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.86199999999999999</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>21874.819504166666</v>
       </c>
-      <c r="E28">
-        <f>VLOOKUP(A28,[1]Sheet2!B32:M208,6,FALSE)</f>
+      <c r="F28">
+        <f>VLOOKUP(B28,[1]Sheet2!B32:M208,6,FALSE)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>VLOOKUP(B29,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>HND</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>53.7</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.61799999999999999</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2136.3938514847405</v>
       </c>
-      <c r="E29">
-        <f>VLOOKUP(A29,[1]Sheet2!B33:M209,6,FALSE)</f>
+      <c r="F29">
+        <f>VLOOKUP(B29,[1]Sheet2!B33:M209,6,FALSE)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>VLOOKUP(B30,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>HUN</v>
+      </c>
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>31.5</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.83399999999999996</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>13667.702786549562</v>
       </c>
-      <c r="E30">
-        <f>VLOOKUP(A30,[1]Sheet2!B34:M210,6,FALSE)</f>
+      <c r="F30">
+        <f>VLOOKUP(B30,[1]Sheet2!B34:M210,6,FALSE)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>VLOOKUP(B31,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>ISL</v>
+      </c>
+      <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>25.4</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.91500000000000004</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>47810.308881996782</v>
       </c>
-      <c r="E31">
-        <f>VLOOKUP(A31,[1]Sheet2!B35:M211,6,FALSE)</f>
+      <c r="F31">
+        <f>VLOOKUP(B31,[1]Sheet2!B35:M211,6,FALSE)</f>
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>VLOOKUP(B32,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>IDN</v>
+      </c>
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>39.5</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3620.6639810952229</v>
       </c>
-      <c r="E32">
-        <f>VLOOKUP(A32,[1]Sheet2!B36:M212,6,FALSE)</f>
+      <c r="F32">
+        <f>VLOOKUP(B32,[1]Sheet2!B36:M212,6,FALSE)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>VLOOKUP(B33,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>IRL</v>
+      </c>
+      <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>33.4</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.91</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>52060.467861083758</v>
       </c>
-      <c r="E33">
-        <f>VLOOKUP(A33,[1]Sheet2!B37:M213,6,FALSE)</f>
+      <c r="F33">
+        <f>VLOOKUP(B33,[1]Sheet2!B37:M213,6,FALSE)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>VLOOKUP(B34,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>ITA</v>
+      </c>
+      <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>34.9</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.877</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>35370.275258375528</v>
       </c>
-      <c r="E34">
-        <f>VLOOKUP(A34,[1]Sheet2!B38:M214,6,FALSE)</f>
+      <c r="F34">
+        <f>VLOOKUP(B34,[1]Sheet2!B38:M214,6,FALSE)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>VLOOKUP(B35,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>KAZ</v>
+      </c>
+      <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>26.3</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.78900000000000003</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>13890.856007789838</v>
       </c>
-      <c r="E35">
-        <f>VLOOKUP(A35,[1]Sheet2!B39:M215,6,FALSE)</f>
+      <c r="F35">
+        <f>VLOOKUP(B35,[1]Sheet2!B39:M215,6,FALSE)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>VLOOKUP(B36,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>LVA</v>
+      </c>
+      <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>35.5</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>15061.937447886956</v>
       </c>
-      <c r="E36">
-        <f>VLOOKUP(A36,[1]Sheet2!B40:M216,6,FALSE)</f>
+      <c r="F36">
+        <f>VLOOKUP(B36,[1]Sheet2!B40:M216,6,FALSE)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>VLOOKUP(B37,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>LTU</v>
+      </c>
+      <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>35.299999999999997</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.84099999999999997</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>15712.823762595455</v>
       </c>
-      <c r="E37">
-        <f>VLOOKUP(A37,[1]Sheet2!B41:M217,6,FALSE)</f>
+      <c r="F37">
+        <f>VLOOKUP(B37,[1]Sheet2!B41:M217,6,FALSE)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>VLOOKUP(B38,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>LUX</v>
+      </c>
+      <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>32</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>113625.13289955996</v>
       </c>
-      <c r="E38">
-        <f>VLOOKUP(A38,[1]Sheet2!B42:M218,6,FALSE)</f>
+      <c r="F38">
+        <f>VLOOKUP(B38,[1]Sheet2!B42:M218,6,FALSE)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>VLOOKUP(B39,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>MNE</v>
+      </c>
+      <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>32.299999999999997</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.80300000000000005</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>7186.4297868215435</v>
       </c>
-      <c r="E39">
-        <f>VLOOKUP(A39,[1]Sheet2!B43:M219,6,FALSE)</f>
+      <c r="F39">
+        <f>VLOOKUP(B39,[1]Sheet2!B43:M219,6,FALSE)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f>VLOOKUP(B40,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>NLD</v>
+      </c>
+      <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>28.1</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.92300000000000004</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>51574.48941846197</v>
       </c>
-      <c r="E40">
-        <f>VLOOKUP(A40,[1]Sheet2!B44:M220,6,FALSE)</f>
+      <c r="F40">
+        <f>VLOOKUP(B40,[1]Sheet2!B44:M220,6,FALSE)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f>VLOOKUP(B41,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>NOR</v>
+      </c>
+      <c r="B41" t="s">
         <v>44</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>26.4</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.94499999999999995</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>103059.24822758982</v>
       </c>
-      <c r="E41">
-        <f>VLOOKUP(A41,[1]Sheet2!B45:M221,6,FALSE)</f>
+      <c r="F41">
+        <f>VLOOKUP(B41,[1]Sheet2!B45:M221,6,FALSE)</f>
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <f>VLOOKUP(B42,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>PAK</v>
+      </c>
+      <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>30.7</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.54200000000000004</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1272.4410610006348</v>
       </c>
-      <c r="E42">
-        <f>VLOOKUP(A42,[1]Sheet2!B46:M222,6,FALSE)</f>
+      <c r="F42">
+        <f>VLOOKUP(B42,[1]Sheet2!B46:M222,6,FALSE)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <f>VLOOKUP(B43,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>PAN</v>
+      </c>
+      <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>51.7</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.78</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>11685.979827337094</v>
       </c>
-      <c r="E43">
-        <f>VLOOKUP(A43,[1]Sheet2!B47:M223,6,FALSE)</f>
+      <c r="F43">
+        <f>VLOOKUP(B43,[1]Sheet2!B47:M223,6,FALSE)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <f>VLOOKUP(B44,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>PRY</v>
+      </c>
+      <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>48.3</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.68799999999999994</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>4479.9058579885068</v>
       </c>
-      <c r="E44">
-        <f>VLOOKUP(A44,[1]Sheet2!B48:M224,6,FALSE)</f>
+      <c r="F44">
+        <f>VLOOKUP(B44,[1]Sheet2!B48:M224,6,FALSE)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f>VLOOKUP(B45,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>PER</v>
+      </c>
+      <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>44.7</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.73499999999999999</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>6583.116248463105</v>
       </c>
-      <c r="E45">
-        <f>VLOOKUP(A45,[1]Sheet2!B49:M225,6,FALSE)</f>
+      <c r="F45">
+        <f>VLOOKUP(B45,[1]Sheet2!B49:M225,6,FALSE)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f>VLOOKUP(B46,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>POL</v>
+      </c>
+      <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>32.5</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.85</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>13780.190606988146</v>
       </c>
-      <c r="E46">
-        <f>VLOOKUP(A46,[1]Sheet2!B50:M226,6,FALSE)</f>
+      <c r="F46">
+        <f>VLOOKUP(B46,[1]Sheet2!B50:M226,6,FALSE)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f>VLOOKUP(B47,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>PRT</v>
+      </c>
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>36.200000000000003</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.83699999999999997</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>21618.735338966253</v>
       </c>
-      <c r="E47">
-        <f>VLOOKUP(A47,[1]Sheet2!B51:M227,6,FALSE)</f>
+      <c r="F47">
+        <f>VLOOKUP(B47,[1]Sheet2!B51:M227,6,FALSE)</f>
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f>VLOOKUP(B48,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>ROU</v>
+      </c>
+      <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>27.5</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.79700000000000004</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>9585.2665926465288</v>
       </c>
-      <c r="E48">
-        <f>VLOOKUP(A48,[1]Sheet2!B52:M228,6,FALSE)</f>
+      <c r="F48">
+        <f>VLOOKUP(B48,[1]Sheet2!B52:M228,6,FALSE)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>40.9</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.80300000000000005</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>15543.6765317424</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <f>VLOOKUP(B50,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>RWA</v>
+      </c>
+      <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>50.4</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.48799999999999999</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>688.87685573277679</v>
       </c>
-      <c r="E50">
-        <f>VLOOKUP(A50,[1]Sheet2!B54:M230,6,FALSE)</f>
+      <c r="F50">
+        <f>VLOOKUP(B50,[1]Sheet2!B54:M230,6,FALSE)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <f>VLOOKUP(B51,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>SRB</v>
+      </c>
+      <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>29.1</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.77100000000000002</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>6353.8263827933151</v>
       </c>
-      <c r="E51">
-        <f>VLOOKUP(A51,[1]Sheet2!B55:M231,6,FALSE)</f>
+      <c r="F51">
+        <f>VLOOKUP(B51,[1]Sheet2!B55:M231,6,FALSE)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <f>VLOOKUP(B52,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>SYC</v>
+      </c>
+      <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>46.8</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>15687.347949486841</v>
       </c>
-      <c r="E52">
-        <f>VLOOKUP(A52,[1]Sheet2!B56:M232,6,FALSE)</f>
+      <c r="F52">
+        <f>VLOOKUP(B52,[1]Sheet2!B56:M232,6,FALSE)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <f>VLOOKUP(B53,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>SVN</v>
+      </c>
+      <c r="B53" t="s">
         <v>56</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>26.2</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>23357.939198651973</v>
       </c>
-      <c r="E53">
-        <f>VLOOKUP(A53,[1]Sheet2!B57:M233,6,FALSE)</f>
+      <c r="F53">
+        <f>VLOOKUP(B53,[1]Sheet2!B57:M233,6,FALSE)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <f>VLOOKUP(B54,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>ESP</v>
+      </c>
+      <c r="B54" t="s">
         <v>57</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>36.200000000000003</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.877</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>29211.773745593502</v>
       </c>
-      <c r="E54">
-        <f>VLOOKUP(A54,[1]Sheet2!B59:M235,6,FALSE)</f>
+      <c r="F54">
+        <f>VLOOKUP(B54,[1]Sheet2!B59:M235,6,FALSE)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <f>VLOOKUP(B55,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>SWE</v>
+      </c>
+      <c r="B55" t="s">
         <v>58</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>27.7</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>60283.245222670004</v>
       </c>
-      <c r="E55">
-        <f>VLOOKUP(A55,[1]Sheet2!B60:M236,6,FALSE)</f>
+      <c r="F55">
+        <f>VLOOKUP(B55,[1]Sheet2!B60:M236,6,FALSE)</f>
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <f>VLOOKUP(B56,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>CHE</v>
+      </c>
+      <c r="B56" t="s">
         <v>59</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>32.5</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>85112.464398414129</v>
       </c>
-      <c r="E56">
-        <f>VLOOKUP(A56,[1]Sheet2!B61:M237,6,FALSE)</f>
+      <c r="F56">
+        <f>VLOOKUP(B56,[1]Sheet2!B61:M237,6,FALSE)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <f>VLOOKUP(B57,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>TJK</v>
+      </c>
+      <c r="B57" t="s">
         <v>60</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>30.4</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0.622</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1040.2144122899806</v>
       </c>
-      <c r="E57">
-        <f>VLOOKUP(A57,[1]Sheet2!B62:M238,6,FALSE)</f>
+      <c r="F57">
+        <f>VLOOKUP(B57,[1]Sheet2!B62:M238,6,FALSE)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <f>VLOOKUP(B58,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>THA</v>
+      </c>
+      <c r="B58" t="s">
         <v>61</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>37.799999999999997</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0.73699999999999999</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>6171.26244433996</v>
       </c>
-      <c r="E58">
-        <f>VLOOKUP(A58,[1]Sheet2!B63:M239,6,FALSE)</f>
+      <c r="F58">
+        <f>VLOOKUP(B58,[1]Sheet2!B63:M239,6,FALSE)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <f>VLOOKUP(B59,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>TUR</v>
+      </c>
+      <c r="B59" t="s">
         <v>62</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>40.200000000000003</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>0.75900000000000001</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>12542.930760135021</v>
       </c>
-      <c r="E59">
-        <f>VLOOKUP(A59,[1]Sheet2!B64:M240,6,FALSE)</f>
+      <c r="F59">
+        <f>VLOOKUP(B59,[1]Sheet2!B64:M240,6,FALSE)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <f>VLOOKUP(B60,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>UKR</v>
+      </c>
+      <c r="B60" t="s">
         <v>63</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>24.5</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0.746</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>4029.7155037213101</v>
       </c>
-      <c r="E60">
-        <f>VLOOKUP(A60,[1]Sheet2!B65:M241,6,FALSE)</f>
+      <c r="F60">
+        <f>VLOOKUP(B60,[1]Sheet2!B65:M241,6,FALSE)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <f>VLOOKUP(B61,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>GBR</v>
+      </c>
+      <c r="B61" t="s">
         <v>64</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>33.200000000000003</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>42724.067884400698</v>
       </c>
-      <c r="E61">
-        <f>VLOOKUP(A61,[1]Sheet2!B66:M242,6,FALSE)</f>
+      <c r="F61">
+        <f>VLOOKUP(B61,[1]Sheet2!B66:M242,6,FALSE)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <f>VLOOKUP(B62,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>USA</v>
+      </c>
+      <c r="B62" t="s">
         <v>65</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>41</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>0.91600000000000004</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>52787.026948993465</v>
       </c>
-      <c r="E62">
-        <f>VLOOKUP(A62,[1]Sheet2!B67:M243,6,FALSE)</f>
+      <c r="F62">
+        <f>VLOOKUP(B62,[1]Sheet2!B67:M243,6,FALSE)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <f>VLOOKUP(B63,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
+        <v>URY</v>
+      </c>
+      <c r="B63" t="s">
         <v>66</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>41.9</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>0.79100000000000004</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>16881.205676315054</v>
       </c>
-      <c r="E63">
-        <f>VLOOKUP(A63,[1]Sheet2!B68:M244,6,FALSE)</f>
+      <c r="F63">
+        <f>VLOOKUP(B63,[1]Sheet2!B68:M244,6,FALSE)</f>
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E63" xr:uid="{45B39518-1CD2-4256-9868-9D8CAE9DBA4D}"/>
+  <autoFilter ref="A1:F63" xr:uid="{9F4BAFA2-F5B3-4B30-9845-E46FB4EAC133}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjshafer\Downloads\datasets_and_notebooks\6020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2886FFA1-96E1-43B3-A156-F3216225492A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB507EBB-5A31-4265-A93F-E44C88D747C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ECA32359-8F83-4EAE-BB08-D66963F701EB}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{ECA32359-8F83-4EAE-BB08-D66963F701EB}"/>
   </bookViews>
   <sheets>
     <sheet name="pyrun" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>country</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>RUS</t>
+  </si>
+  <si>
+    <t>region</t>
   </si>
 </sst>
 </file>
@@ -7362,15 +7365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4BAFA2-F5B3-4B30-9845-E46FB4EAC133}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -7389,8 +7392,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>VLOOKUP(B2,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>ARG</v>
@@ -7411,8 +7417,12 @@
         <f>VLOOKUP(B2,[1]Sheet2!B5:M181,6,FALSE)</f>
         <v>34</v>
       </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(A2,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>VLOOKUP(B3,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>ARM</v>
@@ -7433,8 +7443,12 @@
         <f>VLOOKUP(B3,[1]Sheet2!B6:M182,6,FALSE)</f>
         <v>36</v>
       </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(A3,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>VLOOKUP(B4,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>AUT</v>
@@ -7455,8 +7469,12 @@
         <f>VLOOKUP(B4,[1]Sheet2!B7:M183,6,FALSE)</f>
         <v>69</v>
       </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(A4,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>VLOOKUP(B5,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>BLR</v>
@@ -7477,8 +7495,12 @@
         <f>VLOOKUP(B5,[1]Sheet2!B8:M184,6,FALSE)</f>
         <v>29</v>
       </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(A5,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>VLOOKUP(B6,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>BEL</v>
@@ -7499,8 +7521,12 @@
         <f>VLOOKUP(B6,[1]Sheet2!B9:M185,6,FALSE)</f>
         <v>75</v>
       </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(A6,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>VLOOKUP(B7,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>BRA</v>
@@ -7521,8 +7547,12 @@
         <f>VLOOKUP(B7,[1]Sheet2!B10:M186,6,FALSE)</f>
         <v>42</v>
       </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(A7,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>VLOOKUP(B8,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>BGR</v>
@@ -7543,8 +7573,12 @@
         <f>VLOOKUP(B8,[1]Sheet2!B11:M187,6,FALSE)</f>
         <v>41</v>
       </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(A8,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>VLOOKUP(B9,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>BDI</v>
@@ -7565,8 +7599,12 @@
         <f>VLOOKUP(B9,[1]Sheet2!B12:M188,6,FALSE)</f>
         <v>21</v>
       </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(A9,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AF</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>VLOOKUP(B10,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>CAN</v>
@@ -7587,8 +7625,12 @@
         <f>VLOOKUP(B10,[1]Sheet2!B13:M189,6,FALSE)</f>
         <v>81</v>
       </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(A10,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>VLOOKUP(B11,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>CHL</v>
@@ -7609,8 +7651,12 @@
         <f>VLOOKUP(B11,[1]Sheet2!B14:M190,6,FALSE)</f>
         <v>71</v>
       </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(A11,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>VLOOKUP(B12,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>COL</v>
@@ -7631,8 +7677,12 @@
         <f>VLOOKUP(B12,[1]Sheet2!B15:M191,6,FALSE)</f>
         <v>36</v>
       </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(A12,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>VLOOKUP(B13,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>COM</v>
@@ -7653,8 +7703,12 @@
         <f>VLOOKUP(B13,[1]Sheet2!B16:M192,6,FALSE)</f>
         <v>28</v>
       </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(A13,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AF</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>VLOOKUP(B14,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>CRI</v>
@@ -7675,8 +7729,12 @@
         <f>VLOOKUP(B14,[1]Sheet2!B17:M193,6,FALSE)</f>
         <v>53</v>
       </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(A14,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>VLOOKUP(B15,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>HRV</v>
@@ -7697,8 +7755,12 @@
         <f>VLOOKUP(B15,[1]Sheet2!B18:M194,6,FALSE)</f>
         <v>48</v>
       </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(A15,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>VLOOKUP(B16,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>CYP</v>
@@ -7719,8 +7781,12 @@
         <f>VLOOKUP(B16,[1]Sheet2!B19:M195,6,FALSE)</f>
         <v>63</v>
       </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(A16,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>VLOOKUP(B17,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>CZE</v>
@@ -7741,8 +7807,12 @@
         <f>VLOOKUP(B17,[1]Sheet2!B20:M196,6,FALSE)</f>
         <v>48</v>
       </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(A17,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>VLOOKUP(B18,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>DNK</v>
@@ -7763,8 +7833,12 @@
         <f>VLOOKUP(B18,[1]Sheet2!B21:M197,6,FALSE)</f>
         <v>91</v>
       </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(A18,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>VLOOKUP(B19,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>DJI</v>
@@ -7785,8 +7859,12 @@
         <f>VLOOKUP(B19,[1]Sheet2!B22:M198,6,FALSE)</f>
         <v>36</v>
       </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(A19,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AF</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>VLOOKUP(B20,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>DOM</v>
@@ -7807,8 +7885,12 @@
         <f>VLOOKUP(B20,[1]Sheet2!B23:M199,6,FALSE)</f>
         <v>29</v>
       </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(A20,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>VLOOKUP(B21,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>ECU</v>
@@ -7829,8 +7911,12 @@
         <f>VLOOKUP(B21,[1]Sheet2!B24:M200,6,FALSE)</f>
         <v>35</v>
       </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(A21,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>VLOOKUP(B22,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>SLV</v>
@@ -7851,8 +7937,12 @@
         <f>VLOOKUP(B22,[1]Sheet2!B25:M201,6,FALSE)</f>
         <v>38</v>
       </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(A22,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>VLOOKUP(B23,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>EST</v>
@@ -7873,8 +7963,12 @@
         <f>VLOOKUP(B23,[1]Sheet2!B26:M202,6,FALSE)</f>
         <v>68</v>
       </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(A23,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>VLOOKUP(B24,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>FIN</v>
@@ -7895,8 +7989,12 @@
         <f>VLOOKUP(B24,[1]Sheet2!B28:M204,6,FALSE)</f>
         <v>89</v>
       </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(A24,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>VLOOKUP(B25,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>FRA</v>
@@ -7917,8 +8015,12 @@
         <f>VLOOKUP(B25,[1]Sheet2!B29:M205,6,FALSE)</f>
         <v>71</v>
       </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(A25,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>VLOOKUP(B26,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>GEO</v>
@@ -7939,8 +8041,12 @@
         <f>VLOOKUP(B26,[1]Sheet2!B30:M206,6,FALSE)</f>
         <v>49</v>
       </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(A26,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>VLOOKUP(B27,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>DEU</v>
@@ -7961,8 +8067,12 @@
         <f>VLOOKUP(B27,[1]Sheet2!B31:M207,6,FALSE)</f>
         <v>78</v>
       </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(A27,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>VLOOKUP(B28,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>GRC</v>
@@ -7983,8 +8093,12 @@
         <f>VLOOKUP(B28,[1]Sheet2!B32:M208,6,FALSE)</f>
         <v>40</v>
       </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(A28,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>VLOOKUP(B29,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>HND</v>
@@ -8005,8 +8119,12 @@
         <f>VLOOKUP(B29,[1]Sheet2!B33:M209,6,FALSE)</f>
         <v>26</v>
       </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(A29,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>VLOOKUP(B30,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>HUN</v>
@@ -8027,8 +8145,12 @@
         <f>VLOOKUP(B30,[1]Sheet2!B34:M210,6,FALSE)</f>
         <v>54</v>
       </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(A30,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>VLOOKUP(B31,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>ISL</v>
@@ -8049,8 +8171,12 @@
         <f>VLOOKUP(B31,[1]Sheet2!B35:M211,6,FALSE)</f>
         <v>78</v>
       </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(A31,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>VLOOKUP(B32,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>IDN</v>
@@ -8071,8 +8197,12 @@
         <f>VLOOKUP(B32,[1]Sheet2!B36:M212,6,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(A32,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AP</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>VLOOKUP(B33,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>IRL</v>
@@ -8093,8 +8223,12 @@
         <f>VLOOKUP(B33,[1]Sheet2!B37:M213,6,FALSE)</f>
         <v>72</v>
       </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(A33,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>VLOOKUP(B34,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>ITA</v>
@@ -8115,8 +8249,12 @@
         <f>VLOOKUP(B34,[1]Sheet2!B38:M214,6,FALSE)</f>
         <v>43</v>
       </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(A34,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>VLOOKUP(B35,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>KAZ</v>
@@ -8137,8 +8275,12 @@
         <f>VLOOKUP(B35,[1]Sheet2!B39:M215,6,FALSE)</f>
         <v>26</v>
       </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(A35,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>VLOOKUP(B36,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>LVA</v>
@@ -8159,8 +8301,12 @@
         <f>VLOOKUP(B36,[1]Sheet2!B40:M216,6,FALSE)</f>
         <v>53</v>
       </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(A36,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>VLOOKUP(B37,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>LTU</v>
@@ -8181,8 +8327,12 @@
         <f>VLOOKUP(B37,[1]Sheet2!B41:M217,6,FALSE)</f>
         <v>57</v>
       </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(A37,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>VLOOKUP(B38,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>LUX</v>
@@ -8203,8 +8353,12 @@
         <f>VLOOKUP(B38,[1]Sheet2!B42:M218,6,FALSE)</f>
         <v>80</v>
       </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(A38,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>VLOOKUP(B39,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>MNE</v>
@@ -8225,8 +8379,12 @@
         <f>VLOOKUP(B39,[1]Sheet2!B43:M219,6,FALSE)</f>
         <v>44</v>
       </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(A39,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>VLOOKUP(B40,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>NLD</v>
@@ -8247,8 +8405,12 @@
         <f>VLOOKUP(B40,[1]Sheet2!B44:M220,6,FALSE)</f>
         <v>83</v>
       </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(A40,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>VLOOKUP(B41,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>NOR</v>
@@ -8269,8 +8431,12 @@
         <f>VLOOKUP(B41,[1]Sheet2!B45:M221,6,FALSE)</f>
         <v>86</v>
       </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(A41,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>VLOOKUP(B42,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>PAK</v>
@@ -8291,8 +8457,12 @@
         <f>VLOOKUP(B42,[1]Sheet2!B46:M222,6,FALSE)</f>
         <v>28</v>
       </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(A42,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AP</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>VLOOKUP(B43,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>PAN</v>
@@ -8313,8 +8483,12 @@
         <f>VLOOKUP(B43,[1]Sheet2!B47:M223,6,FALSE)</f>
         <v>35</v>
       </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(A43,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>VLOOKUP(B44,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>PRY</v>
@@ -8335,8 +8509,12 @@
         <f>VLOOKUP(B44,[1]Sheet2!B48:M224,6,FALSE)</f>
         <v>24</v>
       </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(A44,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>VLOOKUP(B45,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>PER</v>
@@ -8357,8 +8535,12 @@
         <f>VLOOKUP(B45,[1]Sheet2!B49:M225,6,FALSE)</f>
         <v>38</v>
       </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(A45,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>VLOOKUP(B46,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>POL</v>
@@ -8379,8 +8561,12 @@
         <f>VLOOKUP(B46,[1]Sheet2!B50:M226,6,FALSE)</f>
         <v>60</v>
       </c>
+      <c r="G46" t="str">
+        <f>VLOOKUP(A46,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>VLOOKUP(B47,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>PRT</v>
@@ -8401,8 +8587,12 @@
         <f>VLOOKUP(B47,[1]Sheet2!B51:M227,6,FALSE)</f>
         <v>62</v>
       </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(A47,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>VLOOKUP(B48,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>ROU</v>
@@ -8423,8 +8613,12 @@
         <f>VLOOKUP(B48,[1]Sheet2!B52:M228,6,FALSE)</f>
         <v>43</v>
       </c>
+      <c r="G48" t="str">
+        <f>VLOOKUP(A48,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -8443,8 +8637,12 @@
       <c r="F49" s="1">
         <v>28</v>
       </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(A49,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>VLOOKUP(B50,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>RWA</v>
@@ -8465,8 +8663,12 @@
         <f>VLOOKUP(B50,[1]Sheet2!B54:M230,6,FALSE)</f>
         <v>53</v>
       </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(A50,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AF</v>
+      </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>VLOOKUP(B51,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>SRB</v>
@@ -8487,8 +8689,12 @@
         <f>VLOOKUP(B51,[1]Sheet2!B55:M231,6,FALSE)</f>
         <v>42</v>
       </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP(A51,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>VLOOKUP(B52,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>SYC</v>
@@ -8509,8 +8715,12 @@
         <f>VLOOKUP(B52,[1]Sheet2!B56:M232,6,FALSE)</f>
         <v>54</v>
       </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(A52,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AF</v>
+      </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>VLOOKUP(B53,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>SVN</v>
@@ -8531,8 +8741,12 @@
         <f>VLOOKUP(B53,[1]Sheet2!B57:M233,6,FALSE)</f>
         <v>57</v>
       </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP(A53,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>VLOOKUP(B54,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>ESP</v>
@@ -8553,8 +8767,12 @@
         <f>VLOOKUP(B54,[1]Sheet2!B59:M235,6,FALSE)</f>
         <v>59</v>
       </c>
+      <c r="G54" t="str">
+        <f>VLOOKUP(A54,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>VLOOKUP(B55,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>SWE</v>
@@ -8575,8 +8793,12 @@
         <f>VLOOKUP(B55,[1]Sheet2!B60:M236,6,FALSE)</f>
         <v>89</v>
       </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(A55,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>VLOOKUP(B56,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>CHE</v>
@@ -8597,8 +8819,12 @@
         <f>VLOOKUP(B56,[1]Sheet2!B61:M237,6,FALSE)</f>
         <v>85</v>
       </c>
+      <c r="G56" t="str">
+        <f>VLOOKUP(A56,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>VLOOKUP(B57,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>TJK</v>
@@ -8619,8 +8845,12 @@
         <f>VLOOKUP(B57,[1]Sheet2!B62:M238,6,FALSE)</f>
         <v>22</v>
       </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(A57,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>VLOOKUP(B58,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>THA</v>
@@ -8641,8 +8871,12 @@
         <f>VLOOKUP(B58,[1]Sheet2!B63:M239,6,FALSE)</f>
         <v>35</v>
       </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(A58,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AP</v>
+      </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>VLOOKUP(B59,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>TUR</v>
@@ -8663,8 +8897,12 @@
         <f>VLOOKUP(B59,[1]Sheet2!B64:M240,6,FALSE)</f>
         <v>50</v>
       </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(A59,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>VLOOKUP(B60,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>UKR</v>
@@ -8685,8 +8923,12 @@
         <f>VLOOKUP(B60,[1]Sheet2!B65:M241,6,FALSE)</f>
         <v>25</v>
       </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(A60,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EE</v>
+      </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>VLOOKUP(B61,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>GBR</v>
@@ -8707,8 +8949,12 @@
         <f>VLOOKUP(B61,[1]Sheet2!B66:M242,6,FALSE)</f>
         <v>76</v>
       </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(A61,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>EU</v>
+      </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>VLOOKUP(B62,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>USA</v>
@@ -8729,8 +8975,12 @@
         <f>VLOOKUP(B62,[1]Sheet2!B67:M243,6,FALSE)</f>
         <v>73</v>
       </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP(A62,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
+      </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>VLOOKUP(B63,[1]Sheet2!$B$5:$C$181,2,FALSE)</f>
         <v>URY</v>
@@ -8750,6 +9000,10 @@
       <c r="F63">
         <f>VLOOKUP(B63,[1]Sheet2!B68:M244,6,FALSE)</f>
         <v>73</v>
+      </c>
+      <c r="G63" t="str">
+        <f>VLOOKUP(A63,[1]Sheet2!$C$5:$E$181,3,FALSE)</f>
+        <v>AM</v>
       </c>
     </row>
   </sheetData>
